--- a/projetogustavo/cache/q1.xlsx
+++ b/projetogustavo/cache/q1.xlsx
@@ -105,19 +105,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -168,25 +162,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,9 +186,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -508,30 +496,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -683,26 +671,26 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2">
@@ -911,26 +899,26 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2">
@@ -941,26 +929,26 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
